--- a/Documents/Excel Upload Sample/Products.xlsx
+++ b/Documents/Excel Upload Sample/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Light\Desktop\Pacifica 2024\Pacifica.API\Documents\Excel Upload Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778B907F-A3C9-4420-B8F6-2C432AAE3390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD879FD5-F311-49F1-823C-A82822A0AEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35630A40-3D79-48E6-8EC4-689682FDF18D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ProductName</t>
   </si>
@@ -56,41 +56,106 @@
     <t>StatusId</t>
   </si>
   <si>
-    <t>Wireless Mouse</t>
-  </si>
-  <si>
-    <t>WM-100</t>
-  </si>
-  <si>
-    <t>Ergonomic design</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>KB-200</t>
-  </si>
-  <si>
-    <t>Mechanical keys</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>LT-300</t>
-  </si>
-  <si>
-    <t>16GB RAM, 512GB SSD</t>
+    <t>FISHFOOD FLOWERHORN 20GMS (OKIKO)</t>
+  </si>
+  <si>
+    <t>FISH FOOD FLOATING KILO MEDIUM</t>
+  </si>
+  <si>
+    <t>FISH FOOD FLOATING KILO/PACK (small)</t>
+  </si>
+  <si>
+    <t>FISH FOOD QUICK GROW PELLET KILO (ord.)</t>
+  </si>
+  <si>
+    <t>FISH FOOD QUICKGROW PELLET KILO(importd)</t>
+  </si>
+  <si>
+    <t>FISHFOOD FLOWERHORN 100GMS (OKIKO)</t>
+  </si>
+  <si>
+    <t>KAGAYAKI KOI COLOUR 5 KGS.</t>
+  </si>
+  <si>
+    <t>KAGAYAKI KOI GROWTH 5 KGS.</t>
+  </si>
+  <si>
+    <t>KOIKING SPIRULINA KOI FISH FOOD 5 KGS</t>
+  </si>
+  <si>
+    <t>SERA BIOFLAKES 100 GMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XO KOI PREMIUM WHEATGERM 5 KGS. </t>
+  </si>
+  <si>
+    <t>XO KOI SUPERIOR COLOUR EXCEL 5 KGS.</t>
+  </si>
+  <si>
+    <t>sku-001</t>
+  </si>
+  <si>
+    <t>sku-002</t>
+  </si>
+  <si>
+    <t>sku-003</t>
+  </si>
+  <si>
+    <t>sku-004</t>
+  </si>
+  <si>
+    <t>sku-005</t>
+  </si>
+  <si>
+    <t>sku-006</t>
+  </si>
+  <si>
+    <t>sku-007</t>
+  </si>
+  <si>
+    <t>sku-008</t>
+  </si>
+  <si>
+    <t>sku-009</t>
+  </si>
+  <si>
+    <t>sku-010</t>
+  </si>
+  <si>
+    <t>sku-011</t>
+  </si>
+  <si>
+    <t>sku-012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,21 +177,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{A6D6A08F-B138-4F5A-89CE-1DB83BFF4E10}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{946C9286-949B-4437-BC76-8825293B7020}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,126 +545,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66ABD8-CE1B-4253-8B44-F92202740BFF}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="12.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>